--- a/data/trans_orig/P14A09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0189420A-6CA2-43F3-A0E3-10D2C915E172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C329E73-2354-428D-9AB3-EF2FBDD78892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD6B4185-ACF1-468D-B684-940353DE32CF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC07E635-D401-4F52-8A56-EF156409D74A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>84,22%</t>
   </si>
   <si>
-    <t>35,07%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>95,95%</t>
   </si>
   <si>
-    <t>79,03%</t>
+    <t>80,06%</t>
   </si>
   <si>
     <t>15,78%</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>64,93%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,7 +120,7 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>20,97%</t>
+    <t>19,94%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -129,7 +129,7 @@
     <t>84,32%</t>
   </si>
   <si>
-    <t>35,05%</t>
+    <t>35,11%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -138,13 +138,13 @@
     <t>92,88%</t>
   </si>
   <si>
-    <t>68,36%</t>
+    <t>68,42%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>64,95%</t>
+    <t>64,89%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -153,7 +153,7 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>31,64%</t>
+    <t>31,58%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -162,49 +162,49 @@
     <t>80,05%</t>
   </si>
   <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>76,47%</t>
+    <t>77,31%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>23,53%</t>
+    <t>22,69%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -237,7 +237,7 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>69,18%</t>
+    <t>66,41%</t>
   </si>
   <si>
     <t>14,73%</t>
@@ -252,7 +252,7 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>30,82%</t>
+    <t>33,59%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -261,55 +261,55 @@
     <t>71,1%</t>
   </si>
   <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -318,97 +318,97 @@
     <t>87,38%</t>
   </si>
   <si>
-    <t>59,34%</t>
+    <t>64,81%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
     <t>79,08%</t>
   </si>
   <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>97,36%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>40,66%</t>
+    <t>35,19%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1228,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DAC4ED-7CEB-4F7B-8165-6F7360A465EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEE0D77-A592-45C3-8A11-339E47D511A5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27231E6-41A7-4AEE-B673-C843B7C9CEA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D315CD-E6A7-4D14-A24B-DE1E51E7CFAE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A09-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C329E73-2354-428D-9AB3-EF2FBDD78892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D89368CF-E519-484B-A7B7-8DDF85280261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC07E635-D401-4F52-8A56-EF156409D74A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFE5EF7E-4928-462B-AD9C-84B5291F4B76}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="262">
   <si>
     <t>Población que recibe medicación o terapia por asma en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>84,22%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>33,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>95,95%</t>
   </si>
   <si>
-    <t>80,06%</t>
+    <t>82,8%</t>
   </si>
   <si>
     <t>15,78%</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>65,76%</t>
+    <t>66,14%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,7 +120,7 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>19,94%</t>
+    <t>17,2%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -129,7 +129,7 @@
     <t>84,32%</t>
   </si>
   <si>
-    <t>35,11%</t>
+    <t>34,68%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -138,13 +138,13 @@
     <t>92,88%</t>
   </si>
   <si>
-    <t>68,42%</t>
+    <t>68,35%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>64,89%</t>
+    <t>65,32%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -153,7 +153,7 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>31,58%</t>
+    <t>31,65%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -162,22 +162,22 @@
     <t>80,05%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>77,31%</t>
+    <t>75,97%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>74,88%</t>
+    <t>74,21%</t>
   </si>
   <si>
     <t>97,2%</t>
@@ -186,16 +186,16 @@
     <t>19,95%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>22,69%</t>
+    <t>24,03%</t>
   </si>
   <si>
     <t>11,2%</t>
@@ -204,7 +204,7 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>25,12%</t>
+    <t>25,79%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -228,7 +228,7 @@
     <t>85,27%</t>
   </si>
   <si>
-    <t>41,55%</t>
+    <t>42,05%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -237,13 +237,13 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>66,41%</t>
+    <t>64,93%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>58,45%</t>
+    <t>57,95%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -252,7 +252,7 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>33,59%</t>
+    <t>35,07%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -261,55 +261,55 @@
     <t>71,1%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -318,151 +318,151 @@
     <t>87,38%</t>
   </si>
   <si>
-    <t>64,81%</t>
+    <t>65,78%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>75,58%</t>
+    <t>70,99%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>35,19%</t>
+    <t>34,22%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>24,42%</t>
+    <t>29,01%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por asma en 2015 (Tasa respuesta: 3,29%)</t>
+    <t>Población que recibe medicación o terapia por asma en 2016 (Tasa respuesta: 3,29%)</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>56,82%</t>
+    <t>59,02%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>82,09%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>43,18%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
   </si>
   <si>
     <t>83,66%</t>
@@ -474,16 +474,16 @@
     <t>84,06%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>83,96%</t>
   </si>
   <si>
-    <t>64,19%</t>
+    <t>67,42%</t>
   </si>
   <si>
     <t>95,9%</t>
@@ -498,10 +498,10 @@
     <t>15,94%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>16,04%</t>
@@ -510,109 +510,109 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>35,81%</t>
+    <t>32,58%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>17,46%</t>
+    <t>29,28%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>68,62%</t>
+    <t>65,37%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>82,54%</t>
+    <t>70,72%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>31,38%</t>
+    <t>34,63%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>29,32%</t>
+    <t>27,75%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -621,13 +621,13 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>57,37%</t>
+    <t>65,16%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>70,68%</t>
+    <t>72,25%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -636,7 +636,7 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>42,63%</t>
+    <t>34,84%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -645,10 +645,13 @@
     <t>88,06%</t>
   </si>
   <si>
+    <t>50,56%</t>
+  </si>
+  <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>65,3%</t>
+    <t>65,13%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -657,70 +660,73 @@
     <t>11,94%</t>
   </si>
   <si>
+    <t>49,44%</t>
+  </si>
+  <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>34,7%</t>
+    <t>34,87%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>69,35%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>47,6%</t>
   </si>
   <si>
     <t>85,79%</t>
@@ -729,19 +735,19 @@
     <t>90,79%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>30,65%</t>
@@ -750,73 +756,73 @@
     <t>14,21%</t>
   </si>
   <si>
-    <t>53,1%</t>
+    <t>52,4%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEE0D77-A592-45C3-8A11-339E47D511A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5BA50-A63E-403D-BF48-A7C3D30CB2D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2741,7 +2747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D315CD-E6A7-4D14-A24B-DE1E51E7CFAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB44723-102D-432D-BC0F-AEECD88E162E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3658,7 +3664,7 @@
         <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3670,10 +3676,10 @@
         <v>10590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3697,7 +3703,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3706,13 +3712,13 @@
         <v>965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3721,13 +3727,13 @@
         <v>965</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3801,13 @@
         <v>16283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -3810,13 +3816,13 @@
         <v>23381</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3825,13 +3831,13 @@
         <v>39664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3852,13 @@
         <v>4136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3861,13 +3867,13 @@
         <v>7314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -3876,13 +3882,13 @@
         <v>11450</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3956,13 @@
         <v>12943</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3965,13 +3971,13 @@
         <v>31323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3980,13 +3986,13 @@
         <v>44265</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +4007,13 @@
         <v>5721</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4016,13 +4022,13 @@
         <v>3178</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -4031,13 +4037,13 @@
         <v>8900</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4111,13 @@
         <v>68296</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H28" s="7">
         <v>111</v>
@@ -4120,13 +4126,13 @@
         <v>119631</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M28" s="7">
         <v>177</v>
@@ -4138,10 +4144,10 @@
         <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4162,13 @@
         <v>17889</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -4171,13 +4177,13 @@
         <v>21527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -4189,10 +4195,10 @@
         <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
